--- a/wine3.xlsx
+++ b/wine3.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t xml:space="preserve">Категория</t>
   </si>
@@ -362,7 +362,9 @@
       <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
